--- a/real_known_point_datasets (copie).xlsx
+++ b/real_known_point_datasets (copie).xlsx
@@ -186,35 +186,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:F9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="925" min="5" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="926" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="926" style="0" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,8 +398,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
